--- a/Code/Results/Cases/Case_2_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_194/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.98569177398184</v>
+        <v>13.3167191879516</v>
       </c>
       <c r="C2">
-        <v>7.807777992304667</v>
+        <v>11.1427967298722</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.603325363388848</v>
+        <v>15.7042566683154</v>
       </c>
       <c r="F2">
-        <v>29.43934710481418</v>
+        <v>42.60373632216616</v>
       </c>
       <c r="G2">
-        <v>2.129336910860581</v>
+        <v>3.69459859876229</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.301514498039722</v>
+        <v>9.136431601577488</v>
       </c>
       <c r="K2">
-        <v>10.35780261989964</v>
+        <v>9.093964355766161</v>
       </c>
       <c r="L2">
-        <v>7.274867911607773</v>
+        <v>11.82890564470812</v>
       </c>
       <c r="M2">
-        <v>10.44696793521905</v>
+        <v>15.7575500699376</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.14909311216765</v>
+        <v>29.28222013225299</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.18927588797925</v>
+        <v>13.12966339586001</v>
       </c>
       <c r="C3">
-        <v>7.854936680548041</v>
+        <v>11.15864958788797</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.505477810101116</v>
+        <v>15.72009619313027</v>
       </c>
       <c r="F3">
-        <v>29.08945670563334</v>
+        <v>42.66176209332836</v>
       </c>
       <c r="G3">
-        <v>2.134253917867968</v>
+        <v>3.696424285542953</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.295023674183923</v>
+        <v>9.133706931412892</v>
       </c>
       <c r="K3">
-        <v>9.795571923382695</v>
+        <v>8.955846068797781</v>
       </c>
       <c r="L3">
-        <v>7.122646058050163</v>
+        <v>11.82613124004907</v>
       </c>
       <c r="M3">
-        <v>10.0909106246613</v>
+        <v>15.72490543507519</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.26563483493034</v>
+        <v>29.37695315391028</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.67662393282063</v>
+        <v>13.01582749366839</v>
       </c>
       <c r="C4">
-        <v>7.885094492903068</v>
+        <v>11.16895668298351</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.448881578834706</v>
+        <v>15.73179125538978</v>
       </c>
       <c r="F4">
-        <v>28.89335626008516</v>
+        <v>42.70593196365606</v>
       </c>
       <c r="G4">
-        <v>2.137367059013153</v>
+        <v>3.697604829751401</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.291249018994682</v>
+        <v>9.132098849912024</v>
       </c>
       <c r="K4">
-        <v>9.433246283802463</v>
+        <v>8.871333712402505</v>
       </c>
       <c r="L4">
-        <v>7.030153478769684</v>
+        <v>11.82583430877352</v>
       </c>
       <c r="M4">
-        <v>9.869514742300353</v>
+        <v>15.70691683953704</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.35007319259245</v>
+        <v>29.44015539324957</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.46188272956812</v>
+        <v>12.96974939383114</v>
       </c>
       <c r="C5">
-        <v>7.89768676442524</v>
+        <v>11.17330149154136</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.426700981502558</v>
+        <v>15.73705307243111</v>
       </c>
       <c r="F5">
-        <v>28.81811923765244</v>
+        <v>42.72607795016197</v>
       </c>
       <c r="G5">
-        <v>2.138659871402586</v>
+        <v>3.698100935718328</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.289764365259049</v>
+        <v>9.131460015520929</v>
       </c>
       <c r="K5">
-        <v>9.281350138953288</v>
+        <v>8.837008895105464</v>
       </c>
       <c r="L5">
-        <v>6.99274870832665</v>
+        <v>11.82606838189556</v>
       </c>
       <c r="M5">
-        <v>9.778726172904264</v>
+        <v>15.70010838364225</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.3876013668553</v>
+        <v>29.46717615570679</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.42587693619977</v>
+        <v>12.96211854942491</v>
       </c>
       <c r="C6">
-        <v>7.899795999566825</v>
+        <v>11.17403168809694</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.42307140457185</v>
+        <v>15.73795676934194</v>
       </c>
       <c r="F6">
-        <v>28.80590730084268</v>
+        <v>42.72955275791765</v>
       </c>
       <c r="G6">
-        <v>2.138876017409877</v>
+        <v>3.698184222553177</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.289521089490906</v>
+        <v>9.131354937032256</v>
       </c>
       <c r="K6">
-        <v>9.25587349445785</v>
+        <v>8.831317412274805</v>
       </c>
       <c r="L6">
-        <v>6.986556232834781</v>
+        <v>11.82612873354823</v>
       </c>
       <c r="M6">
-        <v>9.763620505328859</v>
+        <v>15.69900952033449</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.39401783571628</v>
+        <v>29.47173932782939</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.67375129248734</v>
+        <v>13.01520473651435</v>
       </c>
       <c r="C7">
-        <v>7.885263090329865</v>
+        <v>11.16901469263702</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.448578860871363</v>
+        <v>15.73186020895416</v>
       </c>
       <c r="F7">
-        <v>28.89232271204304</v>
+        <v>42.70619497120096</v>
       </c>
       <c r="G7">
-        <v>2.137384395740674</v>
+        <v>3.697611459514436</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.291228778905504</v>
+        <v>9.132090167468862</v>
       </c>
       <c r="K7">
-        <v>9.431214860869719</v>
+        <v>8.870870277358565</v>
       </c>
       <c r="L7">
-        <v>7.02964780797605</v>
+        <v>11.82583602612861</v>
       </c>
       <c r="M7">
-        <v>9.868292455868886</v>
+        <v>15.70682289796011</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.35056683800697</v>
+        <v>29.44051468268834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.71605563959328</v>
+        <v>13.25204440700425</v>
       </c>
       <c r="C8">
-        <v>7.82378901247692</v>
+        <v>11.14814403361531</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.568869476021579</v>
+        <v>15.70930981713462</v>
       </c>
       <c r="F8">
-        <v>29.3147992331065</v>
+        <v>42.62197002044943</v>
       </c>
       <c r="G8">
-        <v>2.131013092241104</v>
+        <v>3.695215760843749</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.29923306727414</v>
+        <v>9.135478764092811</v>
       </c>
       <c r="K8">
-        <v>10.16752727978685</v>
+        <v>9.046304926001403</v>
       </c>
       <c r="L8">
-        <v>7.222205169940371</v>
+        <v>11.82765795597268</v>
       </c>
       <c r="M8">
-        <v>10.32484988634414</v>
+        <v>15.74587083713301</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.18652943018148</v>
+        <v>29.31383833805593</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.65451565977719</v>
+        <v>13.72213212383937</v>
       </c>
       <c r="C9">
-        <v>7.712763447725666</v>
+        <v>11.11174801429889</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.832011611513007</v>
+        <v>15.68068222540411</v>
       </c>
       <c r="F9">
-        <v>30.29293426926525</v>
+        <v>42.52462685792025</v>
       </c>
       <c r="G9">
-        <v>2.119240447753467</v>
+        <v>3.690988303106466</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.316575893005375</v>
+        <v>9.142632000154711</v>
       </c>
       <c r="K9">
-        <v>11.47387087333079</v>
+        <v>9.390871102247175</v>
       </c>
       <c r="L9">
-        <v>7.605715211956287</v>
+        <v>11.84232738573347</v>
       </c>
       <c r="M9">
-        <v>11.19301319965922</v>
+        <v>15.83851015402305</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.97268233490887</v>
+        <v>29.10542494459252</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.98882517185335</v>
+        <v>14.06772966206837</v>
       </c>
       <c r="C10">
-        <v>7.636989435322258</v>
+        <v>11.08774506707434</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.04137394082602</v>
+        <v>15.66910813827512</v>
       </c>
       <c r="F10">
-        <v>31.10353884717075</v>
+        <v>42.49448674937508</v>
       </c>
       <c r="G10">
-        <v>2.110994103674916</v>
+        <v>3.688166245565132</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.330284576616255</v>
+        <v>9.148189042407633</v>
       </c>
       <c r="K10">
-        <v>12.34831805494577</v>
+        <v>9.642008825054733</v>
       </c>
       <c r="L10">
-        <v>7.88876812870204</v>
+        <v>11.85977962941452</v>
       </c>
       <c r="M10">
-        <v>11.8082937672379</v>
+        <v>15.91602428759903</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.88937194067878</v>
+        <v>28.97674404833002</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.56403068383377</v>
+        <v>14.22433484447649</v>
       </c>
       <c r="C11">
-        <v>7.603778419871688</v>
+        <v>11.0774145588915</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.13995781523221</v>
+        <v>15.66588498905964</v>
       </c>
       <c r="F11">
-        <v>31.49226468317552</v>
+        <v>42.4897536065972</v>
       </c>
       <c r="G11">
-        <v>2.10732151075034</v>
+        <v>3.686943422652241</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.336721941737065</v>
+        <v>9.150780824904601</v>
       </c>
       <c r="K11">
-        <v>12.72750294423743</v>
+        <v>9.755342732300123</v>
       </c>
       <c r="L11">
-        <v>8.017367547481982</v>
+        <v>11.86914701896629</v>
       </c>
       <c r="M11">
-        <v>12.08227233752039</v>
+        <v>15.95326027596865</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.86933676277546</v>
+        <v>28.92352252673362</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.7773341355712</v>
+        <v>14.28349592569703</v>
       </c>
       <c r="C12">
-        <v>7.591383923478253</v>
+        <v>11.0735868961088</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.17775691564844</v>
+        <v>15.66495695643326</v>
       </c>
       <c r="F12">
-        <v>31.64232716653703</v>
+        <v>42.48925043638459</v>
       </c>
       <c r="G12">
-        <v>2.105941360574743</v>
+        <v>3.686489087461226</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.339187651783843</v>
+        <v>9.151771286829073</v>
       </c>
       <c r="K12">
-        <v>12.86841692376455</v>
+        <v>9.798090342709949</v>
       </c>
       <c r="L12">
-        <v>8.066007335503093</v>
+        <v>11.87289755672784</v>
       </c>
       <c r="M12">
-        <v>12.1850997642288</v>
+        <v>15.96763721542397</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.86447720637913</v>
+        <v>28.90413436185179</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.73159529985082</v>
+        <v>14.27076168576435</v>
       </c>
       <c r="C13">
-        <v>7.594045199614243</v>
+        <v>11.07440750918751</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.16959562189763</v>
+        <v>15.66514383453969</v>
       </c>
       <c r="F13">
-        <v>31.60988153032334</v>
+        <v>42.48930150372552</v>
       </c>
       <c r="G13">
-        <v>2.106238142256319</v>
+        <v>3.686586549464668</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.338655386313095</v>
+        <v>9.151557575157629</v>
       </c>
       <c r="K13">
-        <v>12.83818747262332</v>
+        <v>9.788892016396627</v>
       </c>
       <c r="L13">
-        <v>8.055534986455323</v>
+        <v>11.87208080326397</v>
       </c>
       <c r="M13">
-        <v>12.16299608094839</v>
+        <v>15.96452870941763</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.8653999193136</v>
+        <v>28.90827587747854</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.58166943924946</v>
+        <v>14.22920521112368</v>
       </c>
       <c r="C14">
-        <v>7.602755068422418</v>
+        <v>11.07709796777142</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.14305827642517</v>
+        <v>15.66580278380368</v>
       </c>
       <c r="F14">
-        <v>31.50455316648208</v>
+        <v>42.48968638664499</v>
       </c>
       <c r="G14">
-        <v>2.107207757294277</v>
+        <v>3.686905869676845</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.336924241176554</v>
+        <v>9.150862131217387</v>
       </c>
       <c r="K14">
-        <v>12.73914960816986</v>
+        <v>9.758863216405601</v>
       </c>
       <c r="L14">
-        <v>8.021370522528326</v>
+        <v>11.86945151560348</v>
       </c>
       <c r="M14">
-        <v>12.09075086719995</v>
+        <v>15.95443757805147</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.86888137740829</v>
+        <v>28.92191209865773</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.48924928494568</v>
+        <v>14.20373060792503</v>
       </c>
       <c r="C15">
-        <v>7.608113816814775</v>
+        <v>11.07875691611545</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.12686387583373</v>
+        <v>15.66624446698517</v>
       </c>
       <c r="F15">
-        <v>31.44040860379423</v>
+        <v>42.49008995985731</v>
       </c>
       <c r="G15">
-        <v>2.107803029791507</v>
+        <v>3.687102597041983</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.335867485179844</v>
+        <v>9.150437319977003</v>
       </c>
       <c r="K15">
-        <v>12.67813780995546</v>
+        <v>9.740446517499068</v>
       </c>
       <c r="L15">
-        <v>8.000435269629268</v>
+        <v>11.86786741453065</v>
       </c>
       <c r="M15">
-        <v>12.04637653904179</v>
+        <v>15.94829224853581</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.87137384622288</v>
+        <v>28.93036442659178</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.95059936355626</v>
+        <v>14.05747820748116</v>
       </c>
       <c r="C16">
-        <v>7.639185245258667</v>
+        <v>11.08843200266681</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.03499740372994</v>
+        <v>15.66935977371542</v>
       </c>
       <c r="F16">
-        <v>31.07853571923012</v>
+        <v>42.49497658752299</v>
       </c>
       <c r="G16">
-        <v>2.111235638124535</v>
+        <v>3.688247382647546</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.329867852326972</v>
+        <v>9.148020933572061</v>
       </c>
       <c r="K16">
-        <v>12.32316290444317</v>
+        <v>9.634580540607733</v>
       </c>
       <c r="L16">
-        <v>7.880357552422645</v>
+        <v>11.85919601441087</v>
       </c>
       <c r="M16">
-        <v>11.79026320526878</v>
+        <v>15.91362992936831</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.89105418088308</v>
+        <v>28.98032927832874</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.61205466442282</v>
+        <v>13.96756193782163</v>
       </c>
       <c r="C17">
-        <v>7.658569463248304</v>
+        <v>11.09451784208946</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.97948731249371</v>
+        <v>15.67179313373342</v>
       </c>
       <c r="F17">
-        <v>30.86164749492219</v>
+        <v>42.50027272601679</v>
       </c>
       <c r="G17">
-        <v>2.11336108143293</v>
+        <v>3.688965250688545</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.326238183099621</v>
+        <v>9.14655479163342</v>
       </c>
       <c r="K17">
-        <v>12.10062989978699</v>
+        <v>9.569374177858194</v>
       </c>
       <c r="L17">
-        <v>7.806626516026828</v>
+        <v>11.85424076831354</v>
       </c>
       <c r="M17">
-        <v>11.63157628802662</v>
+        <v>15.89286621734918</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.90781382853648</v>
+        <v>29.01234355096637</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.41433814930849</v>
+        <v>13.91579031688879</v>
       </c>
       <c r="C18">
-        <v>7.669837190968066</v>
+        <v>11.09807367438063</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.947874935802149</v>
+        <v>15.67338500997194</v>
       </c>
       <c r="F18">
-        <v>30.73878055015967</v>
+        <v>42.50416410720302</v>
       </c>
       <c r="G18">
-        <v>2.114591035587667</v>
+        <v>3.689383888371002</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.324169492340863</v>
+        <v>9.145717526369037</v>
       </c>
       <c r="K18">
-        <v>11.97088304832355</v>
+        <v>9.531785778324418</v>
       </c>
       <c r="L18">
-        <v>7.764204946416663</v>
+        <v>11.85152520937236</v>
       </c>
       <c r="M18">
-        <v>11.53975051900712</v>
+        <v>15.88110978582725</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.9191250799373</v>
+        <v>29.03125761542271</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.34687875810027</v>
+        <v>13.89825371770446</v>
       </c>
       <c r="C19">
-        <v>7.673672573243086</v>
+        <v>11.09928714720873</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.937226130050144</v>
+        <v>15.67395704774517</v>
       </c>
       <c r="F19">
-        <v>30.69750337311127</v>
+        <v>42.50562686650264</v>
       </c>
       <c r="G19">
-        <v>2.115008779124314</v>
+        <v>3.68952661887329</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.32347235882353</v>
+        <v>9.145435082049316</v>
       </c>
       <c r="K19">
-        <v>11.92665223707966</v>
+        <v>9.519045865900292</v>
       </c>
       <c r="L19">
-        <v>7.749840528485372</v>
+        <v>11.85062894117602</v>
       </c>
       <c r="M19">
-        <v>11.50856723671791</v>
+        <v>15.87716148022232</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.92323721617883</v>
+        <v>29.03774748206092</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.64840285555248</v>
+        <v>13.97713968290908</v>
       </c>
       <c r="C20">
-        <v>7.656493717645113</v>
+        <v>11.0938642610959</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.985363893536709</v>
+        <v>15.67151420688334</v>
       </c>
       <c r="F20">
-        <v>30.88454097615698</v>
+        <v>42.49962148069182</v>
       </c>
       <c r="G20">
-        <v>2.113134057956723</v>
+        <v>3.688888238756505</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.326622607626319</v>
+        <v>9.146710243057335</v>
       </c>
       <c r="K20">
-        <v>12.12450023804776</v>
+        <v>9.576324425308437</v>
       </c>
       <c r="L20">
-        <v>7.814476960598586</v>
+        <v>11.85475435014263</v>
       </c>
       <c r="M20">
-        <v>11.64852659514627</v>
+        <v>15.89505732087201</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.90585560423063</v>
+        <v>29.00888378864633</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.62582836849595</v>
+        <v>14.24141563053552</v>
       </c>
       <c r="C21">
-        <v>7.600191827542536</v>
+        <v>11.07630543044844</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.15084035580594</v>
+        <v>15.6656013053689</v>
       </c>
       <c r="F21">
-        <v>31.53541313993247</v>
+        <v>42.48953836766331</v>
       </c>
       <c r="G21">
-        <v>2.106922676795651</v>
+        <v>3.686811841234087</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.3374319677381</v>
+        <v>9.151066156806287</v>
       </c>
       <c r="K21">
-        <v>12.76831199349664</v>
+        <v>9.767688302797135</v>
       </c>
       <c r="L21">
-        <v>8.031407289377871</v>
+        <v>11.87021830042887</v>
       </c>
       <c r="M21">
-        <v>12.11199658491664</v>
+        <v>15.95739414515294</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.86778348001626</v>
+        <v>28.91788602026351</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.23834606244481</v>
+        <v>14.41328421890763</v>
       </c>
       <c r="C22">
-        <v>7.564455483887713</v>
+        <v>11.06532078510296</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.26170777372602</v>
+        <v>15.66344123579262</v>
       </c>
       <c r="F22">
-        <v>31.97746151131077</v>
+        <v>42.49046136921805</v>
       </c>
       <c r="G22">
-        <v>2.102924478218218</v>
+        <v>3.68550561037993</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.344659341625378</v>
+        <v>9.153965435522258</v>
       </c>
       <c r="K22">
-        <v>13.17349261325374</v>
+        <v>9.891750990146507</v>
       </c>
       <c r="L22">
-        <v>8.172831728584939</v>
+        <v>11.88150889304762</v>
       </c>
       <c r="M22">
-        <v>12.40949958935392</v>
+        <v>15.99974273699952</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.85887533410518</v>
+        <v>28.86287717613535</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.91382030717602</v>
+        <v>14.32165007039729</v>
       </c>
       <c r="C23">
-        <v>7.583431309913573</v>
+        <v>11.07113868116685</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.20229134916811</v>
+        <v>15.6644385518767</v>
       </c>
       <c r="F23">
-        <v>31.74001170189117</v>
+        <v>42.48928210512142</v>
       </c>
       <c r="G23">
-        <v>2.105053039264826</v>
+        <v>3.686198134762527</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.340787381950095</v>
+        <v>9.152413295108753</v>
       </c>
       <c r="K23">
-        <v>12.9586644456074</v>
+        <v>9.825640686220977</v>
       </c>
       <c r="L23">
-        <v>8.097393705422554</v>
+        <v>11.875375269268</v>
       </c>
       <c r="M23">
-        <v>12.25123168753518</v>
+        <v>15.97699590957498</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.86211440244552</v>
+        <v>28.89182762811116</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.63197944430041</v>
+        <v>13.97280982177633</v>
       </c>
       <c r="C24">
-        <v>7.657431777665042</v>
+        <v>11.09415956748329</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.982706152330923</v>
+        <v>15.67163970875612</v>
       </c>
       <c r="F24">
-        <v>30.87418514794561</v>
+        <v>42.49991327159117</v>
       </c>
       <c r="G24">
-        <v>2.113236670269978</v>
+        <v>3.688923037389327</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.326448752994082</v>
+        <v>9.146639945884411</v>
       </c>
       <c r="K24">
-        <v>12.1137140947615</v>
+        <v>9.573182528179007</v>
       </c>
       <c r="L24">
-        <v>7.810927873532886</v>
+        <v>11.85452174450011</v>
       </c>
       <c r="M24">
-        <v>11.64086520761596</v>
+        <v>15.89406615891533</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.9067357093155</v>
+        <v>29.01044636289932</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.13460573192126</v>
+        <v>13.59469171762171</v>
       </c>
       <c r="C25">
-        <v>7.741780854001585</v>
+        <v>11.12111161789503</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.757962966765545</v>
+        <v>15.68676194954521</v>
       </c>
       <c r="F25">
-        <v>30.01218876592975</v>
+        <v>42.54369403817824</v>
       </c>
       <c r="G25">
-        <v>2.122351703116138</v>
+        <v>3.692081880864829</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.311711526883769</v>
+        <v>9.140643302001783</v>
       </c>
       <c r="K25">
-        <v>11.13539061850544</v>
+        <v>9.297844516610176</v>
       </c>
       <c r="L25">
-        <v>7.501579004570523</v>
+        <v>11.83717980251333</v>
       </c>
       <c r="M25">
-        <v>10.96172462299017</v>
+        <v>15.81176276332315</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.01817674436906</v>
+        <v>29.15751827456683</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_194/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.3167191879516</v>
+        <v>12.98569177398183</v>
       </c>
       <c r="C2">
-        <v>11.1427967298722</v>
+        <v>7.807777992304938</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.7042566683154</v>
+        <v>9.603325363388747</v>
       </c>
       <c r="F2">
-        <v>42.60373632216616</v>
+        <v>29.43934710481403</v>
       </c>
       <c r="G2">
-        <v>3.69459859876229</v>
+        <v>2.129336910860581</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.136431601577488</v>
+        <v>6.301514498039691</v>
       </c>
       <c r="K2">
-        <v>9.093964355766161</v>
+        <v>10.35780261989967</v>
       </c>
       <c r="L2">
-        <v>11.82890564470812</v>
+        <v>7.274867911607719</v>
       </c>
       <c r="M2">
-        <v>15.7575500699376</v>
+        <v>10.44696793521902</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.28222013225299</v>
+        <v>19.14909311216755</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.12966339586001</v>
+        <v>12.18927588797923</v>
       </c>
       <c r="C3">
-        <v>11.15864958788797</v>
+        <v>7.854936680547775</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.72009619313027</v>
+        <v>9.505477810101116</v>
       </c>
       <c r="F3">
-        <v>42.66176209332836</v>
+        <v>29.0894567056333</v>
       </c>
       <c r="G3">
-        <v>3.696424285542953</v>
+        <v>2.134253917867566</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.133706931412892</v>
+        <v>6.295023674183994</v>
       </c>
       <c r="K3">
-        <v>8.955846068797781</v>
+        <v>9.795571923382703</v>
       </c>
       <c r="L3">
-        <v>11.82613124004907</v>
+        <v>7.12264605805019</v>
       </c>
       <c r="M3">
-        <v>15.72490543507519</v>
+        <v>10.0909106246613</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.37695315391028</v>
+        <v>19.26563483493036</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.01582749366839</v>
+        <v>11.67662393282062</v>
       </c>
       <c r="C4">
-        <v>11.16895668298351</v>
+        <v>7.885094492902935</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.73179125538978</v>
+        <v>9.448881578834657</v>
       </c>
       <c r="F4">
-        <v>42.70593196365606</v>
+        <v>28.89335626008518</v>
       </c>
       <c r="G4">
-        <v>3.697604829751401</v>
+        <v>2.137367059013155</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.132098849912024</v>
+        <v>6.291249018994746</v>
       </c>
       <c r="K4">
-        <v>8.871333712402505</v>
+        <v>9.433246283802463</v>
       </c>
       <c r="L4">
-        <v>11.82583430877352</v>
+        <v>7.030153478769666</v>
       </c>
       <c r="M4">
-        <v>15.70691683953704</v>
+        <v>9.869514742300339</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.44015539324957</v>
+        <v>19.35007319259258</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.96974939383114</v>
+        <v>11.46188272956811</v>
       </c>
       <c r="C5">
-        <v>11.17330149154136</v>
+        <v>7.897686764425373</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.73705307243111</v>
+        <v>9.426700981502611</v>
       </c>
       <c r="F5">
-        <v>42.72607795016197</v>
+        <v>28.81811923765245</v>
       </c>
       <c r="G5">
-        <v>3.698100935718328</v>
+        <v>2.138659871402586</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.131460015520929</v>
+        <v>6.289764365259046</v>
       </c>
       <c r="K5">
-        <v>8.837008895105464</v>
+        <v>9.281350138953327</v>
       </c>
       <c r="L5">
-        <v>11.82606838189556</v>
+        <v>6.992748708326673</v>
       </c>
       <c r="M5">
-        <v>15.70010838364225</v>
+        <v>9.778726172904269</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.46717615570679</v>
+        <v>19.38760136685521</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.96211854942491</v>
+        <v>11.42587693619977</v>
       </c>
       <c r="C6">
-        <v>11.17403168809694</v>
+        <v>7.89979599956709</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.73795676934194</v>
+        <v>9.423071404571951</v>
       </c>
       <c r="F6">
-        <v>42.72955275791765</v>
+        <v>28.8059073008427</v>
       </c>
       <c r="G6">
-        <v>3.698184222553177</v>
+        <v>2.138876017410144</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.131354937032256</v>
+        <v>6.289521089490936</v>
       </c>
       <c r="K6">
-        <v>8.831317412274805</v>
+        <v>9.255873494457942</v>
       </c>
       <c r="L6">
-        <v>11.82612873354823</v>
+        <v>6.986556232834777</v>
       </c>
       <c r="M6">
-        <v>15.69900952033449</v>
+        <v>9.763620505328841</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.47173932782939</v>
+        <v>19.39401783571619</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.01520473651435</v>
+        <v>11.67375129248734</v>
       </c>
       <c r="C7">
-        <v>11.16901469263702</v>
+        <v>7.885263090329861</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.73186020895416</v>
+        <v>9.448578860871429</v>
       </c>
       <c r="F7">
-        <v>42.70619497120096</v>
+        <v>28.89232271204321</v>
       </c>
       <c r="G7">
-        <v>3.697611459514436</v>
+        <v>2.137384395740674</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.132090167468862</v>
+        <v>6.29122877890537</v>
       </c>
       <c r="K7">
-        <v>8.870870277358565</v>
+        <v>9.431214860869721</v>
       </c>
       <c r="L7">
-        <v>11.82583602612861</v>
+        <v>7.029647807976095</v>
       </c>
       <c r="M7">
-        <v>15.70682289796011</v>
+        <v>9.868292455868913</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.44051468268834</v>
+        <v>19.35056683800699</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.25204440700425</v>
+        <v>12.71605563959328</v>
       </c>
       <c r="C8">
-        <v>11.14814403361531</v>
+        <v>7.823789012476785</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.70930981713462</v>
+        <v>9.568869476021527</v>
       </c>
       <c r="F8">
-        <v>42.62197002044943</v>
+        <v>29.31479923310644</v>
       </c>
       <c r="G8">
-        <v>3.695215760843749</v>
+        <v>2.131013092241372</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.135478764092811</v>
+        <v>6.299233067274142</v>
       </c>
       <c r="K8">
-        <v>9.046304926001403</v>
+        <v>10.16752727978686</v>
       </c>
       <c r="L8">
-        <v>11.82765795597268</v>
+        <v>7.222205169940377</v>
       </c>
       <c r="M8">
-        <v>15.74587083713301</v>
+        <v>10.32484988634413</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.31383833805593</v>
+        <v>19.18652943018147</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.72213212383937</v>
+        <v>14.6545156597772</v>
       </c>
       <c r="C9">
-        <v>11.11174801429889</v>
+        <v>7.712763447725668</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.68068222540411</v>
+        <v>9.832011611512947</v>
       </c>
       <c r="F9">
-        <v>42.52462685792025</v>
+        <v>30.29293426926514</v>
       </c>
       <c r="G9">
-        <v>3.690988303106466</v>
+        <v>2.119240447753468</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.142632000154711</v>
+        <v>6.316575893005375</v>
       </c>
       <c r="K9">
-        <v>9.390871102247175</v>
+        <v>11.47387087333083</v>
       </c>
       <c r="L9">
-        <v>11.84232738573347</v>
+        <v>7.605715211956245</v>
       </c>
       <c r="M9">
-        <v>15.83851015402305</v>
+        <v>11.19301319965919</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.10542494459252</v>
+        <v>18.9726823349088</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.06772966206837</v>
+        <v>15.98882517185338</v>
       </c>
       <c r="C10">
-        <v>11.08774506707434</v>
+        <v>7.636989435321989</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.66910813827512</v>
+        <v>10.0413739408261</v>
       </c>
       <c r="F10">
-        <v>42.49448674937508</v>
+        <v>31.10353884717076</v>
       </c>
       <c r="G10">
-        <v>3.688166245565132</v>
+        <v>2.110994103674916</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.148189042407633</v>
+        <v>6.330284576616324</v>
       </c>
       <c r="K10">
-        <v>9.642008825054733</v>
+        <v>12.34831805494577</v>
       </c>
       <c r="L10">
-        <v>11.85977962941452</v>
+        <v>7.888768128702098</v>
       </c>
       <c r="M10">
-        <v>15.91602428759903</v>
+        <v>11.80829376723793</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.97674404833002</v>
+        <v>18.88937194067877</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.22433484447649</v>
+        <v>16.56403068383377</v>
       </c>
       <c r="C11">
-        <v>11.0774145588915</v>
+        <v>7.603778419871557</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.66588498905964</v>
+        <v>10.13995781523217</v>
       </c>
       <c r="F11">
-        <v>42.4897536065972</v>
+        <v>31.4922646831755</v>
       </c>
       <c r="G11">
-        <v>3.686943422652241</v>
+        <v>2.107321510750206</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.150780824904601</v>
+        <v>6.336721941737069</v>
       </c>
       <c r="K11">
-        <v>9.755342732300123</v>
+        <v>12.7275029442374</v>
       </c>
       <c r="L11">
-        <v>11.86914701896629</v>
+        <v>8.017367547481982</v>
       </c>
       <c r="M11">
-        <v>15.95326027596865</v>
+        <v>12.08227233752039</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.92352252673362</v>
+        <v>18.8693367627755</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.28349592569703</v>
+        <v>16.77733413557124</v>
       </c>
       <c r="C12">
-        <v>11.0735868961088</v>
+        <v>7.59138392347799</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.66495695643326</v>
+        <v>10.17775691564831</v>
       </c>
       <c r="F12">
-        <v>42.48925043638459</v>
+        <v>31.64232716653689</v>
       </c>
       <c r="G12">
-        <v>3.686489087461226</v>
+        <v>2.105941360574874</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.151771286829073</v>
+        <v>6.339187651783812</v>
       </c>
       <c r="K12">
-        <v>9.798090342709949</v>
+        <v>12.86841692376459</v>
       </c>
       <c r="L12">
-        <v>11.87289755672784</v>
+        <v>8.06600733550308</v>
       </c>
       <c r="M12">
-        <v>15.96763721542397</v>
+        <v>12.18509976422876</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.90413436185179</v>
+        <v>18.86447720637903</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.27076168576435</v>
+        <v>16.73159529985087</v>
       </c>
       <c r="C13">
-        <v>11.07440750918751</v>
+        <v>7.594045199614241</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.66514383453969</v>
+        <v>10.16959562189763</v>
       </c>
       <c r="F13">
-        <v>42.48930150372552</v>
+        <v>31.60988153032326</v>
       </c>
       <c r="G13">
-        <v>3.686586549464668</v>
+        <v>2.106238142256452</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.151557575157629</v>
+        <v>6.338655386313002</v>
       </c>
       <c r="K13">
-        <v>9.788892016396627</v>
+        <v>12.83818747262337</v>
       </c>
       <c r="L13">
-        <v>11.87208080326397</v>
+        <v>8.055534986455349</v>
       </c>
       <c r="M13">
-        <v>15.96452870941763</v>
+        <v>12.16299608094836</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.90827587747854</v>
+        <v>18.86539991931342</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.22920521112368</v>
+        <v>16.58166943924947</v>
       </c>
       <c r="C14">
-        <v>11.07709796777142</v>
+        <v>7.602755068422422</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.66580278380368</v>
+        <v>10.14305827642521</v>
       </c>
       <c r="F14">
-        <v>42.48968638664499</v>
+        <v>31.50455316648199</v>
       </c>
       <c r="G14">
-        <v>3.686905869676845</v>
+        <v>2.107207757294677</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.150862131217387</v>
+        <v>6.33692424117646</v>
       </c>
       <c r="K14">
-        <v>9.758863216405601</v>
+        <v>12.73914960816988</v>
       </c>
       <c r="L14">
-        <v>11.86945151560348</v>
+        <v>8.021370522528361</v>
       </c>
       <c r="M14">
-        <v>15.95443757805147</v>
+        <v>12.09075086719995</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.92191209865773</v>
+        <v>18.8688813774081</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.20373060792503</v>
+        <v>16.48924928494572</v>
       </c>
       <c r="C15">
-        <v>11.07875691611545</v>
+        <v>7.608113816814907</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.66624446698517</v>
+        <v>10.12686387583384</v>
       </c>
       <c r="F15">
-        <v>42.49008995985731</v>
+        <v>31.44040860379411</v>
       </c>
       <c r="G15">
-        <v>3.687102597041983</v>
+        <v>2.107803029791373</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.150437319977003</v>
+        <v>6.335867485179782</v>
       </c>
       <c r="K15">
-        <v>9.740446517499068</v>
+        <v>12.67813780995553</v>
       </c>
       <c r="L15">
-        <v>11.86786741453065</v>
+        <v>8.00043526962936</v>
       </c>
       <c r="M15">
-        <v>15.94829224853581</v>
+        <v>12.04637653904181</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.93036442659178</v>
+        <v>18.87137384622264</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.05747820748116</v>
+        <v>15.95059936355625</v>
       </c>
       <c r="C16">
-        <v>11.08843200266681</v>
+        <v>7.639185245258669</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.66935977371542</v>
+        <v>10.0349974037299</v>
       </c>
       <c r="F16">
-        <v>42.49497658752299</v>
+        <v>31.07853571923006</v>
       </c>
       <c r="G16">
-        <v>3.688247382647546</v>
+        <v>2.111235638124267</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.148020933572061</v>
+        <v>6.329867852326975</v>
       </c>
       <c r="K16">
-        <v>9.634580540607733</v>
+        <v>12.32316290444317</v>
       </c>
       <c r="L16">
-        <v>11.85919601441087</v>
+        <v>7.880357552422593</v>
       </c>
       <c r="M16">
-        <v>15.91362992936831</v>
+        <v>11.79026320526877</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.98032927832874</v>
+        <v>18.89105418088307</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.96756193782163</v>
+        <v>15.61205466442284</v>
       </c>
       <c r="C17">
-        <v>11.09451784208946</v>
+        <v>7.658569463248297</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.67179313373342</v>
+        <v>9.979487312493772</v>
       </c>
       <c r="F17">
-        <v>42.50027272601679</v>
+        <v>30.8616474949222</v>
       </c>
       <c r="G17">
-        <v>3.688965250688545</v>
+        <v>2.113361081432796</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.14655479163342</v>
+        <v>6.326238183099687</v>
       </c>
       <c r="K17">
-        <v>9.569374177858194</v>
+        <v>12.100629899787</v>
       </c>
       <c r="L17">
-        <v>11.85424076831354</v>
+        <v>7.806626516026882</v>
       </c>
       <c r="M17">
-        <v>15.89286621734918</v>
+        <v>11.63157628802665</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>29.01234355096637</v>
+        <v>18.90781382853646</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.91579031688879</v>
+        <v>15.41433814930845</v>
       </c>
       <c r="C18">
-        <v>11.09807367438063</v>
+        <v>7.669837190968204</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.67338500997194</v>
+        <v>9.947874935802188</v>
       </c>
       <c r="F18">
-        <v>42.50416410720302</v>
+        <v>30.73878055015975</v>
       </c>
       <c r="G18">
-        <v>3.689383888371002</v>
+        <v>2.114591035587666</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.145717526369037</v>
+        <v>6.324169492340828</v>
       </c>
       <c r="K18">
-        <v>9.531785778324418</v>
+        <v>11.97088304832359</v>
       </c>
       <c r="L18">
-        <v>11.85152520937236</v>
+        <v>7.764204946416656</v>
       </c>
       <c r="M18">
-        <v>15.88110978582725</v>
+        <v>11.53975051900712</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>29.03125761542271</v>
+        <v>18.91912507993731</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.89825371770446</v>
+        <v>15.34687875810027</v>
       </c>
       <c r="C19">
-        <v>11.09928714720873</v>
+        <v>7.673672573242958</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.67395704774517</v>
+        <v>9.937226130050192</v>
       </c>
       <c r="F19">
-        <v>42.50562686650264</v>
+        <v>30.69750337311123</v>
       </c>
       <c r="G19">
-        <v>3.68952661887329</v>
+        <v>2.115008779124445</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.145435082049316</v>
+        <v>6.323472358823596</v>
       </c>
       <c r="K19">
-        <v>9.519045865900292</v>
+        <v>11.92665223707966</v>
       </c>
       <c r="L19">
-        <v>11.85062894117602</v>
+        <v>7.749840528485405</v>
       </c>
       <c r="M19">
-        <v>15.87716148022232</v>
+        <v>11.50856723671792</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>29.03774748206092</v>
+        <v>18.9232372161788</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.97713968290908</v>
+        <v>15.64840285555252</v>
       </c>
       <c r="C20">
-        <v>11.0938642610959</v>
+        <v>7.656493717644984</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.67151420688334</v>
+        <v>9.985363893536761</v>
       </c>
       <c r="F20">
-        <v>42.49962148069182</v>
+        <v>30.88454097615682</v>
       </c>
       <c r="G20">
-        <v>3.688888238756505</v>
+        <v>2.113134057956455</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.146710243057335</v>
+        <v>6.326622607626321</v>
       </c>
       <c r="K20">
-        <v>9.576324425308437</v>
+        <v>12.1245002380478</v>
       </c>
       <c r="L20">
-        <v>11.85475435014263</v>
+        <v>7.814476960598641</v>
       </c>
       <c r="M20">
-        <v>15.89505732087201</v>
+        <v>11.64852659514629</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>29.00888378864633</v>
+        <v>18.90585560423037</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.24141563053552</v>
+        <v>16.6258283684959</v>
       </c>
       <c r="C21">
-        <v>11.07630543044844</v>
+        <v>7.600191827542667</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.6656013053689</v>
+        <v>10.15084035580593</v>
       </c>
       <c r="F21">
-        <v>42.48953836766331</v>
+        <v>31.53541313993263</v>
       </c>
       <c r="G21">
-        <v>3.686811841234087</v>
+        <v>2.106922676795514</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.151066156806287</v>
+        <v>6.337431967738066</v>
       </c>
       <c r="K21">
-        <v>9.767688302797135</v>
+        <v>12.76831199349659</v>
       </c>
       <c r="L21">
-        <v>11.87021830042887</v>
+        <v>8.031407289377809</v>
       </c>
       <c r="M21">
-        <v>15.95739414515294</v>
+        <v>12.11199658491665</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.91788602026351</v>
+        <v>18.86778348001645</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.41328421890763</v>
+        <v>17.23834606244478</v>
       </c>
       <c r="C22">
-        <v>11.06532078510296</v>
+        <v>7.564455483887846</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.66344123579262</v>
+        <v>10.26170777372603</v>
       </c>
       <c r="F22">
-        <v>42.49046136921805</v>
+        <v>31.97746151131079</v>
       </c>
       <c r="G22">
-        <v>3.68550561037993</v>
+        <v>2.102924478217816</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.153965435522258</v>
+        <v>6.344659341625445</v>
       </c>
       <c r="K22">
-        <v>9.891750990146507</v>
+        <v>13.17349261325368</v>
       </c>
       <c r="L22">
-        <v>11.88150889304762</v>
+        <v>8.172831728584958</v>
       </c>
       <c r="M22">
-        <v>15.99974273699952</v>
+        <v>12.40949958935394</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>28.86287717613535</v>
+        <v>18.85887533410526</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.32165007039729</v>
+        <v>16.91382030717602</v>
       </c>
       <c r="C23">
-        <v>11.07113868116685</v>
+        <v>7.583431309913571</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.6644385518767</v>
+        <v>10.20229134916818</v>
       </c>
       <c r="F23">
-        <v>42.48928210512142</v>
+        <v>31.74001170189113</v>
       </c>
       <c r="G23">
-        <v>3.686198134762527</v>
+        <v>2.105053039264693</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.152413295108753</v>
+        <v>6.340787381950129</v>
       </c>
       <c r="K23">
-        <v>9.825640686220977</v>
+        <v>12.95866444560741</v>
       </c>
       <c r="L23">
-        <v>11.875375269268</v>
+        <v>8.097393705422581</v>
       </c>
       <c r="M23">
-        <v>15.97699590957498</v>
+        <v>12.25123168753518</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>28.89182762811116</v>
+        <v>18.86211440244547</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.97280982177633</v>
+        <v>15.63197944430036</v>
       </c>
       <c r="C24">
-        <v>11.09415956748329</v>
+        <v>7.657431777664915</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.67163970875612</v>
+        <v>9.982706152330875</v>
       </c>
       <c r="F24">
-        <v>42.49991327159117</v>
+        <v>30.87418514794561</v>
       </c>
       <c r="G24">
-        <v>3.688923037389327</v>
+        <v>2.113236670269844</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.146639945884411</v>
+        <v>6.326448752994117</v>
       </c>
       <c r="K24">
-        <v>9.573182528179007</v>
+        <v>12.11371409476144</v>
       </c>
       <c r="L24">
-        <v>11.85452174450011</v>
+        <v>7.81092787353284</v>
       </c>
       <c r="M24">
-        <v>15.89406615891533</v>
+        <v>11.64086520761595</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>29.01044636289932</v>
+        <v>18.9067357093156</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.59469171762171</v>
+        <v>14.13460573192127</v>
       </c>
       <c r="C25">
-        <v>11.12111161789503</v>
+        <v>7.741780854001584</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.68676194954521</v>
+        <v>9.757962966765557</v>
       </c>
       <c r="F25">
-        <v>42.54369403817824</v>
+        <v>30.01218876592979</v>
       </c>
       <c r="G25">
-        <v>3.692081880864829</v>
+        <v>2.122351703116004</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.140643302001783</v>
+        <v>6.311711526883673</v>
       </c>
       <c r="K25">
-        <v>9.297844516610176</v>
+        <v>11.13539061850545</v>
       </c>
       <c r="L25">
-        <v>11.83717980251333</v>
+        <v>7.501579004570518</v>
       </c>
       <c r="M25">
-        <v>15.81176276332315</v>
+        <v>10.96172462299019</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.15751827456683</v>
+        <v>19.01817674436901</v>
       </c>
     </row>
   </sheetData>
